--- a/biology/Médecine/Julie_Déchanet-Merville/Julie_Déchanet-Merville.xlsx
+++ b/biology/Médecine/Julie_Déchanet-Merville/Julie_Déchanet-Merville.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Julie_D%C3%A9chanet-Merville</t>
+          <t>Julie_Déchanet-Merville</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Julie Déchanet-Merville est une chercheuse et directrice de recherche en immunologie. Elle mène ses recherches au laboratoire Immunologie conceptuelle, expérimentale et translationnelle (Immunoconcept) à l'Université de Bordeaux. En 2023, elle reçoit la médaille d'argent du CNRS.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Julie_D%C3%A9chanet-Merville</t>
+          <t>Julie_Déchanet-Merville</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julie Déchanet-Merville soutient sa thèse de doctorat en 1995 à l'Université Claude-Bernard-Lyon-I sous la direction de Jacques Banchereau (en). Elle entre au CNRS en 2001 puis devient directrice de recherche à l'Université de Bordeaux[1].
-Ses recherches portent sur le système immunitaire et notamment l'action des Lymphocytes T gamma delta (γδ) dans la lutte contre le Cytomégalovirus. Elle visent à comprendre l'action de ces cellules lorsque notre corps combat des maladies infectieuses, un cancer ou à la suite d'une transplantation[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julie Déchanet-Merville soutient sa thèse de doctorat en 1995 à l'Université Claude-Bernard-Lyon-I sous la direction de Jacques Banchereau (en). Elle entre au CNRS en 2001 puis devient directrice de recherche à l'Université de Bordeaux.
+Ses recherches portent sur le système immunitaire et notamment l'action des Lymphocytes T gamma delta (γδ) dans la lutte contre le Cytomégalovirus. Elle visent à comprendre l'action de ces cellules lorsque notre corps combat des maladies infectieuses, un cancer ou à la suite d'une transplantation.
 En 2023, elle reçoit la médaille d'argent du CNRS pour ses travaux.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Julie_D%C3%A9chanet-Merville</t>
+          <t>Julie_Déchanet-Merville</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Distinctions et récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2022 : Médaille d'argent du CNRS[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2022 : Médaille d'argent du CNRS
 2001 : Médaille de bronze du CNRS</t>
         </is>
       </c>
